--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/script2/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/script2/Filtered_Regions.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/script2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE1368A5-4C75-0544-A9E9-04EEF58C2F0A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21FDAD08-0B7D-CE43-83B8-A2C8C599D016}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31480" yWindow="11140" windowWidth="18520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NC_016856.1" sheetId="2" r:id="rId1"/>
+    <sheet name="NC_011083.1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>heidelberg-01</t>
   </si>
@@ -1440,7 +1440,7 @@
   <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/script2/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/script2/Filtered_Regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/script2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21FDAD08-0B7D-CE43-83B8-A2C8C599D016}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86E6C15C-51CD-3841-8103-0756FC05AE87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31480" yWindow="11140" windowWidth="18520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,357 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>heidelberg-01</t>
   </si>
   <si>
     <t>heidelberg-All</t>
+  </si>
+  <si>
+    <t>1120801</t>
+  </si>
+  <si>
+    <t>1120826</t>
+  </si>
+  <si>
+    <t>385770</t>
+  </si>
+  <si>
+    <t>1544735</t>
+  </si>
+  <si>
+    <t>381593</t>
+  </si>
+  <si>
+    <t>1552027</t>
+  </si>
+  <si>
+    <t>2880906</t>
+  </si>
+  <si>
+    <t>2387339</t>
+  </si>
+  <si>
+    <t>2387881</t>
+  </si>
+  <si>
+    <t>1544687</t>
+  </si>
+  <si>
+    <t>2387174</t>
+  </si>
+  <si>
+    <t>1544738</t>
+  </si>
+  <si>
+    <t>1544700</t>
+  </si>
+  <si>
+    <t>2881052</t>
+  </si>
+  <si>
+    <t>2387876</t>
+  </si>
+  <si>
+    <t>4635877</t>
+  </si>
+  <si>
+    <t>4635360</t>
+  </si>
+  <si>
+    <t>1544780</t>
+  </si>
+  <si>
+    <t>2808721</t>
+  </si>
+  <si>
+    <t>2387903</t>
+  </si>
+  <si>
+    <t>379663</t>
+  </si>
+  <si>
+    <t>1162173</t>
+  </si>
+  <si>
+    <t>2881030</t>
+  </si>
+  <si>
+    <t>4635883</t>
+  </si>
+  <si>
+    <t>2132212</t>
+  </si>
+  <si>
+    <t>4635904</t>
+  </si>
+  <si>
+    <t>2881071</t>
+  </si>
+  <si>
+    <t>1544723</t>
+  </si>
+  <si>
+    <t>1544777</t>
+  </si>
+  <si>
+    <t>1544720</t>
+  </si>
+  <si>
+    <t>2881057</t>
+  </si>
+  <si>
+    <t>1544693</t>
+  </si>
+  <si>
+    <t>1549999</t>
+  </si>
+  <si>
+    <t>2387871</t>
+  </si>
+  <si>
+    <t>1544756</t>
+  </si>
+  <si>
+    <t>379518</t>
+  </si>
+  <si>
+    <t>379492</t>
+  </si>
+  <si>
+    <t>2881042</t>
+  </si>
+  <si>
+    <t>1524228</t>
+  </si>
+  <si>
+    <t>1524229</t>
+  </si>
+  <si>
+    <t>1162167</t>
+  </si>
+  <si>
+    <t>4635898</t>
+  </si>
+  <si>
+    <t>4109867</t>
+  </si>
+  <si>
+    <t>2881012</t>
+  </si>
+  <si>
+    <t>2387489</t>
+  </si>
+  <si>
+    <t>1120795</t>
+  </si>
+  <si>
+    <t>2900387</t>
+  </si>
+  <si>
+    <t>1552030</t>
+  </si>
+  <si>
+    <t>1552039</t>
+  </si>
+  <si>
+    <t>4110115</t>
+  </si>
+  <si>
+    <t>1751399</t>
+  </si>
+  <si>
+    <t>2881009</t>
+  </si>
+  <si>
+    <t>379677</t>
+  </si>
+  <si>
+    <t>2880736</t>
+  </si>
+  <si>
+    <t>379523</t>
+  </si>
+  <si>
+    <t>1550002</t>
+  </si>
+  <si>
+    <t>1552036</t>
+  </si>
+  <si>
+    <t>2881064</t>
+  </si>
+  <si>
+    <t>1549987</t>
+  </si>
+  <si>
+    <t>2880990</t>
+  </si>
+  <si>
+    <t>2387873</t>
+  </si>
+  <si>
+    <t>1551334</t>
+  </si>
+  <si>
+    <t>1544699</t>
+  </si>
+  <si>
+    <t>4282782</t>
+  </si>
+  <si>
+    <t>3080793</t>
+  </si>
+  <si>
+    <t>3150753</t>
+  </si>
+  <si>
+    <t>4635371</t>
+  </si>
+  <si>
+    <t>1120823</t>
+  </si>
+  <si>
+    <t>2387897</t>
+  </si>
+  <si>
+    <t>1120789</t>
+  </si>
+  <si>
+    <t>1544765</t>
+  </si>
+  <si>
+    <t>2881039</t>
+  </si>
+  <si>
+    <t>2881072</t>
+  </si>
+  <si>
+    <t>4635298</t>
+  </si>
+  <si>
+    <t>1544696</t>
+  </si>
+  <si>
+    <t>1551976</t>
+  </si>
+  <si>
+    <t>3548249</t>
+  </si>
+  <si>
+    <t>1523785</t>
+  </si>
+  <si>
+    <t>4204906</t>
+  </si>
+  <si>
+    <t>188911</t>
+  </si>
+  <si>
+    <t>379675</t>
+  </si>
+  <si>
+    <t>4113740</t>
+  </si>
+  <si>
+    <t>2808722</t>
+  </si>
+  <si>
+    <t>1120833</t>
+  </si>
+  <si>
+    <t>381599</t>
+  </si>
+  <si>
+    <t>1551997</t>
+  </si>
+  <si>
+    <t>2387902</t>
+  </si>
+  <si>
+    <t>2387870</t>
+  </si>
+  <si>
+    <t>4635331</t>
+  </si>
+  <si>
+    <t>2387896</t>
+  </si>
+  <si>
+    <t>2809289</t>
+  </si>
+  <si>
+    <t>1120811</t>
+  </si>
+  <si>
+    <t>1544726</t>
+  </si>
+  <si>
+    <t>2881027</t>
+  </si>
+  <si>
+    <t>1550008</t>
+  </si>
+  <si>
+    <t>4635363</t>
+  </si>
+  <si>
+    <t>1551343</t>
+  </si>
+  <si>
+    <t>4110272</t>
+  </si>
+  <si>
+    <t>1523767</t>
+  </si>
+  <si>
+    <t>2387891</t>
+  </si>
+  <si>
+    <t>2881049</t>
+  </si>
+  <si>
+    <t>1549993</t>
+  </si>
+  <si>
+    <t>2880913</t>
+  </si>
+  <si>
+    <t>1549996</t>
+  </si>
+  <si>
+    <t>1120822</t>
+  </si>
+  <si>
+    <t>1120816</t>
+  </si>
+  <si>
+    <t>379520</t>
+  </si>
+  <si>
+    <t>379512</t>
+  </si>
+  <si>
+    <t>1107614</t>
+  </si>
+  <si>
+    <t>300923</t>
+  </si>
+  <si>
+    <t>4635871</t>
+  </si>
+  <si>
+    <t>1544747</t>
+  </si>
+  <si>
+    <t>1524211</t>
+  </si>
+  <si>
+    <t>2880987</t>
+  </si>
+  <si>
+    <t>2881069</t>
   </si>
 </sst>
 </file>
@@ -807,7 +1152,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -820,6 +1165,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="279">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
@@ -1439,13 +1787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1459,351 +1805,697 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="B81" s="3"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="B89" s="3"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="B113" s="3"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="B115" s="3"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="B116" s="3"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="6"/>
       <c r="B117" s="3"/>
     </row>
   </sheetData>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/script2/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/script2/Filtered_Regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/script2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86E6C15C-51CD-3841-8103-0756FC05AE87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{44ED363C-2833-224F-A13B-68AF0B6D2944}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31480" yWindow="11140" windowWidth="18520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>heidelberg-01</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>2881069</t>
+  </si>
+  <si>
+    <t>heidelberg-02</t>
   </si>
 </sst>
 </file>
@@ -553,18 +556,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -740,27 +737,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1004,47 +986,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1152,20 +1134,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1785,718 +1764,608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="3"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/script2/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/script2/Filtered_Regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/script2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{44ED363C-2833-224F-A13B-68AF0B6D2944}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75E34670-517F-3A48-A0EE-A873A31D8AEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31480" yWindow="11140" windowWidth="18520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52700" yWindow="7360" windowWidth="18520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NC_011083.1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>heidelberg-01</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>heidelberg-02</t>
+  </si>
+  <si>
+    <t>2387477</t>
+  </si>
+  <si>
+    <t>2381560</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1147,6 +1153,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="279">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
@@ -1767,13 +1777,13 @@
   <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1793,6 +1803,12 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
